--- a/src/test/resources/testdata/AddLocations.xlsx
+++ b/src/test/resources/testdata/AddLocations.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milenasibalic/eclipse-workspace/TestNGFramework/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDB2B3B-F8A2-AD4E-B3C8-8BC23BAD4924}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC437C8-49A3-EB48-9CE7-6D687E361F7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="25440" windowHeight="14520" activeTab="1" xr2:uid="{128265AB-FADE-3B42-8C9A-6051D35CFEAE}"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="25440" windowHeight="14520" activeTab="2" xr2:uid="{128265AB-FADE-3B42-8C9A-6051D35CFEAE}"/>
   </bookViews>
   <sheets>
-    <sheet name="EmployeeDetails2" sheetId="1" r:id="rId1"/>
+    <sheet name="EmployeeDetails" sheetId="1" r:id="rId1"/>
     <sheet name="AddLocations" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>FirstName</t>
   </si>
@@ -528,7 +529,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,7 +703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD7EFE7-5AF1-3A47-A6DA-750F6A4CF80C}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -787,6 +790,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8474844C-49F3-304D-A1A1-935F60197FA3}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>28001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>3042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8533EA24-276F-924D-9C4C-DC9609418F30}">
   <dimension ref="A1"/>
   <sheetViews>
